--- a/output.xlsx
+++ b/output.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:I1"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +475,386 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>now_price</t>
+          <t>amplitude</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>price_change_pct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>price_change_amt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>turnover_rate</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>stock_id</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>stock_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1755</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1762.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1769.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1736.66</v>
+      </c>
+      <c r="G2" t="n">
+        <v>18608</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3265514010</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="K2" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45251</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1783.42</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1790</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1798</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1770.1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>30098</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5383107810</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K3" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45252</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1783.3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1781.51</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1794.35</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1780.54</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12665</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2263460167</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-8.49</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45253</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1778.3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1786</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1788</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1771</v>
+      </c>
+      <c r="G5" t="n">
+        <v>11550</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2055272193</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45254</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1789</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1777</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1789</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1775</v>
+      </c>
+      <c r="G6" t="n">
+        <v>13085</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2329345658</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-9</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1773.3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1763</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1773.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1755</v>
+      </c>
+      <c r="G7" t="n">
+        <v>16261</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2865075217</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-14</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1773.30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1763.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1773.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1755.00</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>16261</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2865075217.00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-0.79</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>-14.00</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
         </is>
       </c>
     </row>
